--- a/biology/Zoologie/Deharvengiurus_severini/Deharvengiurus_severini.xlsx
+++ b/biology/Zoologie/Deharvengiurus_severini/Deharvengiurus_severini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Deharvengiurus severini est une espèce de collemboles de la famille des Onychiuridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deharvengiurus severini est une espèce de collemboles de la famille des Onychiuridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Belgique. Elle se rencontre dans les grottes de Han, la grotte de Lorette-Rochefort, la grotte de Ramioul, la grotte du Père Noël, la grotte d'Éprave, la grotte Steinlein, la grotte Lyell, la grotte de Rosée et l'abîme de la Nansnioule[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Belgique. Elle se rencontre dans les grottes de Han, la grotte de Lorette-Rochefort, la grotte de Ramioul, la grotte du Père Noël, la grotte d'Éprave, la grotte Steinlein, la grotte Lyell, la grotte de Rosée et l'abîme de la Nansnioule,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce troglobie[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce troglobie.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Aphorura severini par Willem en 1902[5]. Pomorski en 2001 la place dans le genre Deharvengiurus[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Aphorura severini par Willem en 1902. Pomorski en 2001 la place dans le genre Deharvengiurus.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de G. Severin du Musée royal d'histoire naturelle de Bruxelles[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de G. Severin du Musée royal d'histoire naturelle de Bruxelles.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Willem, 1902 : Note préliminaire sur les Collemboles des Grottes de Han et de Rochefort. Annales de la Société entomologique de Belgique, vol. 46, p. 275-283 (texte intégral).</t>
         </is>
